--- a/21년 miracle-morning/05월/5월의 Miracle.xlsx
+++ b/21년 miracle-morning/05월/5월의 Miracle.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Souvenir\Desktop\git\miracle-morning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Souvenir\Desktop\git\miracle-morning\21년 miracle-morning\05월\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -765,16 +765,16 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.796875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
@@ -786,7 +786,7 @@
       <c r="G1" s="15"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="11" t="s">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>44319</v>
       </c>
@@ -836,7 +836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>44320</v>
       </c>
@@ -862,7 +862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>44321</v>
       </c>
@@ -889,7 +889,7 @@
       </c>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>44322</v>
       </c>
@@ -915,7 +915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>44323</v>
       </c>
@@ -941,7 +941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>44324</v>
       </c>
@@ -967,7 +967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>44325</v>
       </c>
@@ -993,7 +993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>44326</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>44327</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>44328</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>44329</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>44330</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>44331</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>44332</v>
       </c>
@@ -1177,7 +1177,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>44333</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>44334</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>44335</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>44336</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>44337</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>44338</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>44339</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>44340</v>
       </c>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>44341</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>44342</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>44343</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>44344</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>44345</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>44346</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>44347</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>8</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>0.81818181818181823</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="1"/>
@@ -1611,7 +1611,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1621,7 +1621,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
